--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -652,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -809,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1164,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1264,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1364,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1456,7 +1456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1464,15 +1464,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2.8824869876157292E-5</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.50507214508864551</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1504,18 +1504,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1708,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1958,7 +1958,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2247,7 +2247,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2481,8 +2481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2490,27 +2490,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2506,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2526,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2522,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2542,7 +2530,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2550,7 +2538,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2558,99 +2546,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2736,10 +2721,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2798,7 +2783,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -208,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -236,7 +237,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,6 +312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,31 +641,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +674,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -679,7 +683,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -689,7 +693,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -699,94 +703,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -798,18 +802,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -875,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -943,7 +947,7 @@
         <v>-1.4040572538488967</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>-0.72664223153371277</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1153,18 +1157,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1179,7 +1183,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1253,18 +1257,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1283,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1353,18 +1357,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1379,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>0.62752726025134931</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1453,72 +1457,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>2.8824869876157292E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.50507214508864551</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>1.3979598906659217E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>1.2664779789139888E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>1.4493768772479227E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1568,29 +1572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1622,71 +1626,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1699,244 +1703,244 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1949,264 +1953,264 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2218,36 +2222,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2262,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2296,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2339,37 +2343,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2401,71 +2405,71 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1.0069999999999999</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>1.0089999999999999</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>1.0069999999999999</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.0029999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>1.008</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>1.006</v>
       </c>
     </row>
@@ -2478,19 +2482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2506,7 +2510,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2530,7 +2534,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2546,59 +2550,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2611,7 +2615,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2619,85 +2623,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2710,24 +2703,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2743,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2759,10 +2752,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2772,18 +2765,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2849,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2917,7 +2910,7 @@
         <v>-1.4040572538488967</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2985,7 +2978,7 @@
         <v>-0.72664223153371277</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3053,7 +3046,7 @@
         <v>0.58484105856509894</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410899851168146E-2</v>
+        <v>-9.8410899851168104E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420405891628992</v>
+        <v>-0.19420405891629</v>
       </c>
       <c r="E2">
-        <v>-0.28727969220157595</v>
+        <v>-0.28727969220157601</v>
       </c>
       <c r="F2">
-        <v>-0.37754522385540484</v>
+        <v>-0.37754522385540501</v>
       </c>
       <c r="G2">
-        <v>-0.46491420099416708</v>
+        <v>-0.46491420099416703</v>
       </c>
       <c r="H2">
-        <v>-0.54931023203358231</v>
+        <v>-0.54931023203358198</v>
       </c>
       <c r="I2">
-        <v>-0.63066574333268344</v>
+        <v>-0.63066574333268299</v>
       </c>
       <c r="J2">
-        <v>-0.70892553191610752</v>
+        <v>-0.70892553191610796</v>
       </c>
       <c r="K2">
         <v>-0.78404541560735397</v>
       </c>
       <c r="L2">
-        <v>-0.85599525684409594</v>
+        <v>-0.85599525684409605</v>
       </c>
       <c r="M2">
-        <v>-0.9247573868004193</v>
+        <v>-0.92475738680041897</v>
       </c>
       <c r="N2">
-        <v>-0.99032899400735852</v>
+        <v>-0.99032899400735896</v>
       </c>
       <c r="O2">
-        <v>-1.0527202491016163</v>
+        <v>-1.0527202491016201</v>
       </c>
       <c r="P2">
-        <v>-1.1119560140087643</v>
+        <v>-1.1119560140087601</v>
       </c>
       <c r="Q2">
-        <v>-1.1680736584241462</v>
+        <v>-1.16807365842415</v>
       </c>
       <c r="R2">
-        <v>-1.2211241188452635</v>
+        <v>-1.22112411884526</v>
       </c>
       <c r="S2">
         <v>-1.2711694648705101</v>
       </c>
       <c r="T2">
-        <v>-1.3182834047649081</v>
+        <v>-1.3182834047649099</v>
       </c>
       <c r="U2">
-        <v>-1.3625487123714326</v>
+        <v>-1.3625487123714299</v>
       </c>
       <c r="V2">
-        <v>-1.4040572538488967</v>
+        <v>-1.4040572538489</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -955,64 +955,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.169656727482168E-2</v>
+        <v>-6.1696567274821701E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025351345676694</v>
+        <v>-0.12025351345676701</v>
       </c>
       <c r="E3">
-        <v>-0.17571061169715729</v>
+        <v>-0.17571061169715699</v>
       </c>
       <c r="F3">
-        <v>-0.22812084258124651</v>
+        <v>-0.22812084258124701</v>
       </c>
       <c r="G3">
-        <v>-0.27754808062307085</v>
+        <v>-0.27754808062307101</v>
       </c>
       <c r="H3">
-        <v>-0.32406755207320942</v>
+        <v>-0.32406755207320898</v>
       </c>
       <c r="I3">
-        <v>-0.36776327754389637</v>
+        <v>-0.36776327754389598</v>
       </c>
       <c r="J3">
-        <v>-0.40872813689790166</v>
+        <v>-0.40872813689790199</v>
       </c>
       <c r="K3">
-        <v>-0.44706132253921804</v>
+        <v>-0.44706132253921799</v>
       </c>
       <c r="L3">
-        <v>-0.4828681688719399</v>
+        <v>-0.48286816887194001</v>
       </c>
       <c r="M3">
-        <v>-0.51625774879046482</v>
+        <v>-0.51625774879046504</v>
       </c>
       <c r="N3">
-        <v>-0.5473426116166491</v>
+        <v>-0.54734261161664899</v>
       </c>
       <c r="O3">
-        <v>-0.57623662841401069</v>
+        <v>-0.57623662841401102</v>
       </c>
       <c r="P3">
-        <v>-0.60305475008462783</v>
+        <v>-0.60305475008462806</v>
       </c>
       <c r="Q3">
-        <v>-0.62791116814933612</v>
+        <v>-0.62791116814933601</v>
       </c>
       <c r="R3">
-        <v>-0.65091916477981837</v>
+        <v>-0.65091916477981804</v>
       </c>
       <c r="S3">
-        <v>-0.67218961520660236</v>
+        <v>-0.67218961520660203</v>
       </c>
       <c r="T3">
-        <v>-0.69183096344112782</v>
+        <v>-0.69183096344112804</v>
       </c>
       <c r="U3">
-        <v>-0.70994805828927388</v>
+        <v>-0.70994805828927399</v>
       </c>
       <c r="V3">
-        <v>-0.72664223153371277</v>
+        <v>-0.72664223153371299</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.9084256934987766E-2</v>
+        <v>-3.90842569349878E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6104152828595562E-2</v>
+        <v>-7.6104152828595603E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11112616144699498</v>
+        <v>-0.111126161446995</v>
       </c>
       <c r="F5">
-        <v>-0.14421907386722752</v>
+        <v>-0.14421907386722799</v>
       </c>
       <c r="G5">
-        <v>-0.17545309718624921</v>
+        <v>-0.17545309718624899</v>
       </c>
       <c r="H5">
-        <v>-0.20489989858642851</v>
+        <v>-0.20489989858642901</v>
       </c>
       <c r="I5">
-        <v>-0.23263172654259048</v>
+        <v>-0.23263172654259001</v>
       </c>
       <c r="J5">
-        <v>-0.25872141080394151</v>
+        <v>-0.25872141080394201</v>
       </c>
       <c r="K5">
-        <v>-0.28324157015549034</v>
+        <v>-0.28324157015549001</v>
       </c>
       <c r="L5">
-        <v>-0.30626460257859139</v>
+        <v>-0.30626460257859101</v>
       </c>
       <c r="M5">
-        <v>-0.32786199560071305</v>
+        <v>-0.327861995600713</v>
       </c>
       <c r="N5">
-        <v>-0.3481043302175707</v>
+        <v>-0.34810433021757098</v>
       </c>
       <c r="O5">
-        <v>-0.36706070076988695</v>
+        <v>-0.36706070076988701</v>
       </c>
       <c r="P5">
-        <v>-0.38479874628159561</v>
+        <v>-0.38479874628159599</v>
       </c>
       <c r="Q5">
-        <v>-0.40138417885451688</v>
+        <v>-0.40138417885451699</v>
       </c>
       <c r="R5">
-        <v>-0.41688084790010077</v>
+        <v>-0.41688084790010099</v>
       </c>
       <c r="S5">
-        <v>-0.43135036998932719</v>
+        <v>-0.43135036998932702</v>
       </c>
       <c r="T5">
-        <v>-0.44485222544662706</v>
+        <v>-0.444852225446627</v>
       </c>
       <c r="U5">
-        <v>-0.45744347863633106</v>
+        <v>-0.457443478636331</v>
       </c>
       <c r="V5">
-        <v>-0.46917889344996927</v>
+        <v>-0.46917889344996899</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.48134369678110195</v>
+        <v>0.481343696781102</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24684839640499476</v>
+        <v>0.24684839640499501</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69623616797363841</v>
+        <v>0.69623616797363796</v>
       </c>
       <c r="E4">
-        <v>0.62752726025134931</v>
+        <v>0.62752726025134897</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97490208196697525</v>
+        <v>-0.97490208196697503</v>
       </c>
       <c r="E5">
-        <v>0.95332977081203873</v>
+        <v>0.95332977081203896</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8824869876157292E-5</v>
+        <v>2.8824869876157299E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50507214508864551</v>
+        <v>0.50507214508864595</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9897994533296085E-6</v>
+        <v>6.9897994533296102E-6</v>
       </c>
       <c r="C8">
-        <v>1.3979598906659217E-5</v>
+        <v>1.39795989066592E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.332389894569944E-7</v>
+        <v>6.3323898945699398E-7</v>
       </c>
       <c r="C9">
-        <v>1.2664779789139888E-6</v>
+        <v>1.2664779789139901E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4493768772479227E-4</v>
+        <v>1.44937687724792E-4</v>
       </c>
       <c r="C10">
-        <v>1.4493768772479227E-4</v>
+        <v>1.44937687724792E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.0157582164620042E-5</v>
+        <v>1.0157582164619999E-5</v>
       </c>
       <c r="C11">
-        <v>1.165349862007445E-4</v>
+        <v>1.16534986200745E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1733,10 +1733,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="15">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="17">
         <v>1.2</v>
@@ -1757,40 +1757,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1798,40 +1798,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1839,40 +1839,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1880,40 +1880,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1983,10 +1983,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="8">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="8">
         <v>1.2</v>
@@ -2007,40 +2007,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2048,40 +2048,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2130,40 +2130,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2640,7 +2640,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2649,10 +2649,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2667,13 +2667,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2682,13 +2682,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2850,64 +2850,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410899851168146E-2</v>
+        <v>-9.8410899851168104E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420405891628992</v>
+        <v>-0.19420405891629</v>
       </c>
       <c r="E2">
-        <v>-0.28727969220157595</v>
+        <v>-0.28727969220157601</v>
       </c>
       <c r="F2">
-        <v>-0.37754522385540484</v>
+        <v>-0.37754522385540501</v>
       </c>
       <c r="G2">
-        <v>-0.46491420099416708</v>
+        <v>-0.46491420099416703</v>
       </c>
       <c r="H2">
-        <v>-0.54931023203358231</v>
+        <v>-0.54931023203358198</v>
       </c>
       <c r="I2">
-        <v>-0.63066574333268344</v>
+        <v>-0.63066574333268299</v>
       </c>
       <c r="J2">
-        <v>-0.70892553191610752</v>
+        <v>-0.70892553191610796</v>
       </c>
       <c r="K2">
         <v>-0.78404541560735397</v>
       </c>
       <c r="L2">
-        <v>-0.85599525684409594</v>
+        <v>-0.85599525684409605</v>
       </c>
       <c r="M2">
-        <v>-0.9247573868004193</v>
+        <v>-0.92475738680041897</v>
       </c>
       <c r="N2">
-        <v>-0.99032899400735852</v>
+        <v>-0.99032899400735896</v>
       </c>
       <c r="O2">
-        <v>-1.0527202491016163</v>
+        <v>-1.0527202491016201</v>
       </c>
       <c r="P2">
-        <v>-1.1119560140087643</v>
+        <v>-1.1119560140087601</v>
       </c>
       <c r="Q2">
-        <v>-1.1680736584241462</v>
+        <v>-1.16807365842415</v>
       </c>
       <c r="R2">
-        <v>-1.2211241188452635</v>
+        <v>-1.22112411884526</v>
       </c>
       <c r="S2">
         <v>-1.2711694648705101</v>
       </c>
       <c r="T2">
-        <v>-1.3182834047649081</v>
+        <v>-1.3182834047649099</v>
       </c>
       <c r="U2">
-        <v>-1.3625487123714326</v>
+        <v>-1.3625487123714299</v>
       </c>
       <c r="V2">
-        <v>-1.4040572538488967</v>
+        <v>-1.4040572538489</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2918,64 +2918,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.169656727482168E-2</v>
+        <v>-6.1696567274821701E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025351345676694</v>
+        <v>-0.12025351345676701</v>
       </c>
       <c r="E3">
-        <v>-0.17571061169715729</v>
+        <v>-0.17571061169715699</v>
       </c>
       <c r="F3">
-        <v>-0.22812084258124651</v>
+        <v>-0.22812084258124701</v>
       </c>
       <c r="G3">
-        <v>-0.27754808062307085</v>
+        <v>-0.27754808062307101</v>
       </c>
       <c r="H3">
-        <v>-0.32406755207320942</v>
+        <v>-0.32406755207320898</v>
       </c>
       <c r="I3">
-        <v>-0.36776327754389637</v>
+        <v>-0.36776327754389598</v>
       </c>
       <c r="J3">
-        <v>-0.40872813689790166</v>
+        <v>-0.40872813689790199</v>
       </c>
       <c r="K3">
-        <v>-0.44706132253921804</v>
+        <v>-0.44706132253921799</v>
       </c>
       <c r="L3">
-        <v>-0.4828681688719399</v>
+        <v>-0.48286816887194001</v>
       </c>
       <c r="M3">
-        <v>-0.51625774879046482</v>
+        <v>-0.51625774879046504</v>
       </c>
       <c r="N3">
-        <v>-0.5473426116166491</v>
+        <v>-0.54734261161664899</v>
       </c>
       <c r="O3">
-        <v>-0.57623662841401069</v>
+        <v>-0.57623662841401102</v>
       </c>
       <c r="P3">
-        <v>-0.60305475008462783</v>
+        <v>-0.60305475008462806</v>
       </c>
       <c r="Q3">
-        <v>-0.62791116814933612</v>
+        <v>-0.62791116814933601</v>
       </c>
       <c r="R3">
-        <v>-0.65091916477981837</v>
+        <v>-0.65091916477981804</v>
       </c>
       <c r="S3">
-        <v>-0.67218961520660236</v>
+        <v>-0.67218961520660203</v>
       </c>
       <c r="T3">
-        <v>-0.69183096344112782</v>
+        <v>-0.69183096344112804</v>
       </c>
       <c r="U3">
-        <v>-0.70994805828927388</v>
+        <v>-0.70994805828927399</v>
       </c>
       <c r="V3">
-        <v>-0.72664223153371277</v>
+        <v>-0.72664223153371299</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2986,64 +2986,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.763148317367774E-2</v>
+        <v>7.7631483173677698E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471389966825488</v>
+        <v>0.14471389966825501</v>
       </c>
       <c r="E4">
-        <v>0.20301711586748694</v>
+        <v>0.203017115867487</v>
       </c>
       <c r="F4">
-        <v>0.25392795548938207</v>
+        <v>0.25392795548938202</v>
       </c>
       <c r="G4">
-        <v>0.29855256800241559</v>
+        <v>0.29855256800241597</v>
       </c>
       <c r="H4">
-        <v>0.33778792296544147</v>
+        <v>0.33778792296544102</v>
       </c>
       <c r="I4">
-        <v>0.37237056754271225</v>
+        <v>0.37237056754271203</v>
       </c>
       <c r="J4">
-        <v>0.40291305117038934</v>
+        <v>0.402913051170389</v>
       </c>
       <c r="K4">
-        <v>0.42992942184920646</v>
+        <v>0.42992942184920602</v>
       </c>
       <c r="L4">
-        <v>0.45385546276813482</v>
+        <v>0.45385546276813499</v>
       </c>
       <c r="M4">
-        <v>0.47506299800662177</v>
+        <v>0.47506299800662199</v>
       </c>
       <c r="N4">
-        <v>0.49387193756698078</v>
+        <v>0.493871937566981</v>
       </c>
       <c r="O4">
-        <v>0.5105587611934248</v>
+        <v>0.51055876119342503</v>
       </c>
       <c r="P4">
-        <v>0.52536410299591108</v>
+        <v>0.52536410299591096</v>
       </c>
       <c r="Q4">
-        <v>0.53849801302824751</v>
+        <v>0.53849801302824796</v>
       </c>
       <c r="R4">
-        <v>0.55014496241237976</v>
+        <v>0.55014496241237998</v>
       </c>
       <c r="S4">
-        <v>0.56046723001337928</v>
+        <v>0.56046723001337895</v>
       </c>
       <c r="T4">
-        <v>0.56960833829562318</v>
+        <v>0.56960833829562296</v>
       </c>
       <c r="U4">
-        <v>0.57769530318611739</v>
+        <v>0.57769530318611695</v>
       </c>
       <c r="V4">
-        <v>0.58484105856509894</v>
+        <v>0.58484105856509905</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3054,34 +3054,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2981386675897875E-2</v>
+        <v>-7.2981386675897902E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14603068951682577</v>
+        <v>-0.14603068951682599</v>
       </c>
       <c r="E5">
-        <v>-0.21903360462425139</v>
+        <v>-0.219033604624251</v>
       </c>
       <c r="F5">
-        <v>-0.29186491007598858</v>
+        <v>-0.29186491007598903</v>
       </c>
       <c r="G5">
-        <v>-0.36439271546179014</v>
+        <v>-0.36439271546178997</v>
       </c>
       <c r="H5">
-        <v>-0.43648097601172342</v>
+        <v>-0.43648097601172298</v>
       </c>
       <c r="I5">
-        <v>-0.50799253098300146</v>
+        <v>-0.50799253098300101</v>
       </c>
       <c r="J5">
-        <v>-0.57879073567176831</v>
+        <v>-0.57879073567176798</v>
       </c>
       <c r="K5">
-        <v>-0.64874154845291254</v>
+        <v>-0.64874154845291299</v>
       </c>
       <c r="L5">
-        <v>-0.71771460384392294</v>
+        <v>-0.71771460384392305</v>
       </c>
       <c r="M5">
         <v>-0.78558463794688904</v>
@@ -3090,28 +3090,28 @@
         <v>-0.85223224942851905</v>
       </c>
       <c r="O5">
-        <v>-0.91754487355837266</v>
+        <v>-0.917544873558373</v>
       </c>
       <c r="P5">
-        <v>-0.98141737978839239</v>
+        <v>-0.98141737978839205</v>
       </c>
       <c r="Q5">
-        <v>-1.0437527217683755</v>
+        <v>-1.04375272176838</v>
       </c>
       <c r="R5">
-        <v>-1.1044624377328083</v>
+        <v>-1.1044624377328101</v>
       </c>
       <c r="S5">
-        <v>-1.163467040024297</v>
+        <v>-1.1634670400242999</v>
       </c>
       <c r="T5">
-        <v>-1.2206964287542852</v>
+        <v>-1.2206964287542901</v>
       </c>
       <c r="U5">
-        <v>-1.2760900443545982</v>
+        <v>-1.2760900443545999</v>
       </c>
       <c r="V5">
-        <v>-1.3295971630070853</v>
+        <v>-1.32959716300709</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/seaver_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\seaver_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410899851168104E-2</v>
+        <v>-9.8410899851168146E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420405891629</v>
+        <v>-0.19420405891628992</v>
       </c>
       <c r="E2">
-        <v>-0.28727969220157601</v>
+        <v>-0.28727969220157595</v>
       </c>
       <c r="F2">
-        <v>-0.37754522385540501</v>
+        <v>-0.37754522385540484</v>
       </c>
       <c r="G2">
-        <v>-0.46491420099416703</v>
+        <v>-0.46491420099416708</v>
       </c>
       <c r="H2">
-        <v>-0.54931023203358198</v>
+        <v>-0.54931023203358231</v>
       </c>
       <c r="I2">
-        <v>-0.63066574333268299</v>
+        <v>-0.63066574333268344</v>
       </c>
       <c r="J2">
-        <v>-0.70892553191610796</v>
+        <v>-0.70892553191610752</v>
       </c>
       <c r="K2">
         <v>-0.78404541560735397</v>
       </c>
       <c r="L2">
-        <v>-0.85599525684409605</v>
+        <v>-0.85599525684409594</v>
       </c>
       <c r="M2">
-        <v>-0.92475738680041897</v>
+        <v>-0.9247573868004193</v>
       </c>
       <c r="N2">
-        <v>-0.99032899400735896</v>
+        <v>-0.99032899400735852</v>
       </c>
       <c r="O2">
-        <v>-1.0527202491016201</v>
+        <v>-1.0527202491016163</v>
       </c>
       <c r="P2">
-        <v>-1.1119560140087601</v>
+        <v>-1.1119560140087643</v>
       </c>
       <c r="Q2">
-        <v>-1.16807365842415</v>
+        <v>-1.1680736584241462</v>
       </c>
       <c r="R2">
-        <v>-1.22112411884526</v>
+        <v>-1.2211241188452635</v>
       </c>
       <c r="S2">
         <v>-1.2711694648705101</v>
       </c>
       <c r="T2">
-        <v>-1.3182834047649099</v>
+        <v>-1.3182834047649081</v>
       </c>
       <c r="U2">
-        <v>-1.3625487123714299</v>
+        <v>-1.3625487123714326</v>
       </c>
       <c r="V2">
-        <v>-1.4040572538489</v>
+        <v>-1.4040572538488967</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -955,64 +955,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696567274821701E-2</v>
+        <v>-6.169656727482168E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025351345676701</v>
+        <v>-0.12025351345676694</v>
       </c>
       <c r="E3">
-        <v>-0.17571061169715699</v>
+        <v>-0.17571061169715729</v>
       </c>
       <c r="F3">
-        <v>-0.22812084258124701</v>
+        <v>-0.22812084258124651</v>
       </c>
       <c r="G3">
-        <v>-0.27754808062307101</v>
+        <v>-0.27754808062307085</v>
       </c>
       <c r="H3">
-        <v>-0.32406755207320898</v>
+        <v>-0.32406755207320942</v>
       </c>
       <c r="I3">
-        <v>-0.36776327754389598</v>
+        <v>-0.36776327754389637</v>
       </c>
       <c r="J3">
-        <v>-0.40872813689790199</v>
+        <v>-0.40872813689790166</v>
       </c>
       <c r="K3">
-        <v>-0.44706132253921799</v>
+        <v>-0.44706132253921804</v>
       </c>
       <c r="L3">
-        <v>-0.48286816887194001</v>
+        <v>-0.4828681688719399</v>
       </c>
       <c r="M3">
-        <v>-0.51625774879046504</v>
+        <v>-0.51625774879046482</v>
       </c>
       <c r="N3">
-        <v>-0.54734261161664899</v>
+        <v>-0.5473426116166491</v>
       </c>
       <c r="O3">
-        <v>-0.57623662841401102</v>
+        <v>-0.57623662841401069</v>
       </c>
       <c r="P3">
-        <v>-0.60305475008462806</v>
+        <v>-0.60305475008462783</v>
       </c>
       <c r="Q3">
-        <v>-0.62791116814933601</v>
+        <v>-0.62791116814933612</v>
       </c>
       <c r="R3">
-        <v>-0.65091916477981804</v>
+        <v>-0.65091916477981837</v>
       </c>
       <c r="S3">
-        <v>-0.67218961520660203</v>
+        <v>-0.67218961520660236</v>
       </c>
       <c r="T3">
-        <v>-0.69183096344112804</v>
+        <v>-0.69183096344112782</v>
       </c>
       <c r="U3">
-        <v>-0.70994805828927399</v>
+        <v>-0.70994805828927388</v>
       </c>
       <c r="V3">
-        <v>-0.72664223153371299</v>
+        <v>-0.72664223153371277</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-3.90842569349878E-2</v>
+        <v>-3.9084256934987766E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6104152828595603E-2</v>
+        <v>-7.6104152828595562E-2</v>
       </c>
       <c r="E5">
-        <v>-0.111126161446995</v>
+        <v>-0.11112616144699498</v>
       </c>
       <c r="F5">
-        <v>-0.14421907386722799</v>
+        <v>-0.14421907386722752</v>
       </c>
       <c r="G5">
-        <v>-0.17545309718624899</v>
+        <v>-0.17545309718624921</v>
       </c>
       <c r="H5">
-        <v>-0.20489989858642901</v>
+        <v>-0.20489989858642851</v>
       </c>
       <c r="I5">
-        <v>-0.23263172654259001</v>
+        <v>-0.23263172654259048</v>
       </c>
       <c r="J5">
-        <v>-0.25872141080394201</v>
+        <v>-0.25872141080394151</v>
       </c>
       <c r="K5">
-        <v>-0.28324157015549001</v>
+        <v>-0.28324157015549034</v>
       </c>
       <c r="L5">
-        <v>-0.30626460257859101</v>
+        <v>-0.30626460257859139</v>
       </c>
       <c r="M5">
-        <v>-0.327861995600713</v>
+        <v>-0.32786199560071305</v>
       </c>
       <c r="N5">
-        <v>-0.34810433021757098</v>
+        <v>-0.3481043302175707</v>
       </c>
       <c r="O5">
-        <v>-0.36706070076988701</v>
+        <v>-0.36706070076988695</v>
       </c>
       <c r="P5">
-        <v>-0.38479874628159599</v>
+        <v>-0.38479874628159561</v>
       </c>
       <c r="Q5">
-        <v>-0.40138417885451699</v>
+        <v>-0.40138417885451688</v>
       </c>
       <c r="R5">
-        <v>-0.41688084790010099</v>
+        <v>-0.41688084790010077</v>
       </c>
       <c r="S5">
-        <v>-0.43135036998932702</v>
+        <v>-0.43135036998932719</v>
       </c>
       <c r="T5">
-        <v>-0.444852225446627</v>
+        <v>-0.44485222544662706</v>
       </c>
       <c r="U5">
-        <v>-0.457443478636331</v>
+        <v>-0.45744347863633106</v>
       </c>
       <c r="V5">
-        <v>-0.46917889344996899</v>
+        <v>-0.46917889344996927</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.481343696781102</v>
+        <v>0.48134369678110195</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24684839640499501</v>
+        <v>0.24684839640499476</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69623616797363796</v>
+        <v>0.69623616797363841</v>
       </c>
       <c r="E4">
-        <v>0.62752726025134897</v>
+        <v>0.62752726025134931</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97490208196697503</v>
+        <v>-0.97490208196697525</v>
       </c>
       <c r="E5">
-        <v>0.95332977081203896</v>
+        <v>0.95332977081203873</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1479,7 +1479,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8824869876157299E-5</v>
+        <v>2.8824869876157292E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50507214508864595</v>
+        <v>0.50507214508864551</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.9897994533296102E-6</v>
+        <v>6.9897994533296085E-6</v>
       </c>
       <c r="C8">
-        <v>1.39795989066592E-5</v>
+        <v>1.3979598906659217E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.3323898945699398E-7</v>
+        <v>6.332389894569944E-7</v>
       </c>
       <c r="C9">
-        <v>1.2664779789139901E-6</v>
+        <v>1.2664779789139888E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.44937687724792E-4</v>
+        <v>1.4493768772479227E-4</v>
       </c>
       <c r="C10">
-        <v>1.44937687724792E-4</v>
+        <v>1.4493768772479227E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.0157582164619999E-5</v>
+        <v>1.0157582164620042E-5</v>
       </c>
       <c r="C11">
-        <v>1.16534986200745E-4</v>
+        <v>1.165349862007445E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1757,40 +1759,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1798,40 +1800,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1839,40 +1841,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1880,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1956,7 +1958,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2007,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2048,40 +2052,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2130,40 +2134,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2640,7 +2644,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2649,10 +2653,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2667,13 +2671,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2682,13 +2686,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2850,64 +2854,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-9.8410899851168104E-2</v>
+        <v>-9.8410899851168146E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19420405891629</v>
+        <v>-0.19420405891628992</v>
       </c>
       <c r="E2">
-        <v>-0.28727969220157601</v>
+        <v>-0.28727969220157595</v>
       </c>
       <c r="F2">
-        <v>-0.37754522385540501</v>
+        <v>-0.37754522385540484</v>
       </c>
       <c r="G2">
-        <v>-0.46491420099416703</v>
+        <v>-0.46491420099416708</v>
       </c>
       <c r="H2">
-        <v>-0.54931023203358198</v>
+        <v>-0.54931023203358231</v>
       </c>
       <c r="I2">
-        <v>-0.63066574333268299</v>
+        <v>-0.63066574333268344</v>
       </c>
       <c r="J2">
-        <v>-0.70892553191610796</v>
+        <v>-0.70892553191610752</v>
       </c>
       <c r="K2">
         <v>-0.78404541560735397</v>
       </c>
       <c r="L2">
-        <v>-0.85599525684409605</v>
+        <v>-0.85599525684409594</v>
       </c>
       <c r="M2">
-        <v>-0.92475738680041897</v>
+        <v>-0.9247573868004193</v>
       </c>
       <c r="N2">
-        <v>-0.99032899400735896</v>
+        <v>-0.99032899400735852</v>
       </c>
       <c r="O2">
-        <v>-1.0527202491016201</v>
+        <v>-1.0527202491016163</v>
       </c>
       <c r="P2">
-        <v>-1.1119560140087601</v>
+        <v>-1.1119560140087643</v>
       </c>
       <c r="Q2">
-        <v>-1.16807365842415</v>
+        <v>-1.1680736584241462</v>
       </c>
       <c r="R2">
-        <v>-1.22112411884526</v>
+        <v>-1.2211241188452635</v>
       </c>
       <c r="S2">
         <v>-1.2711694648705101</v>
       </c>
       <c r="T2">
-        <v>-1.3182834047649099</v>
+        <v>-1.3182834047649081</v>
       </c>
       <c r="U2">
-        <v>-1.3625487123714299</v>
+        <v>-1.3625487123714326</v>
       </c>
       <c r="V2">
-        <v>-1.4040572538489</v>
+        <v>-1.4040572538488967</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2918,64 +2922,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1696567274821701E-2</v>
+        <v>-6.169656727482168E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12025351345676701</v>
+        <v>-0.12025351345676694</v>
       </c>
       <c r="E3">
-        <v>-0.17571061169715699</v>
+        <v>-0.17571061169715729</v>
       </c>
       <c r="F3">
-        <v>-0.22812084258124701</v>
+        <v>-0.22812084258124651</v>
       </c>
       <c r="G3">
-        <v>-0.27754808062307101</v>
+        <v>-0.27754808062307085</v>
       </c>
       <c r="H3">
-        <v>-0.32406755207320898</v>
+        <v>-0.32406755207320942</v>
       </c>
       <c r="I3">
-        <v>-0.36776327754389598</v>
+        <v>-0.36776327754389637</v>
       </c>
       <c r="J3">
-        <v>-0.40872813689790199</v>
+        <v>-0.40872813689790166</v>
       </c>
       <c r="K3">
-        <v>-0.44706132253921799</v>
+        <v>-0.44706132253921804</v>
       </c>
       <c r="L3">
-        <v>-0.48286816887194001</v>
+        <v>-0.4828681688719399</v>
       </c>
       <c r="M3">
-        <v>-0.51625774879046504</v>
+        <v>-0.51625774879046482</v>
       </c>
       <c r="N3">
-        <v>-0.54734261161664899</v>
+        <v>-0.5473426116166491</v>
       </c>
       <c r="O3">
-        <v>-0.57623662841401102</v>
+        <v>-0.57623662841401069</v>
       </c>
       <c r="P3">
-        <v>-0.60305475008462806</v>
+        <v>-0.60305475008462783</v>
       </c>
       <c r="Q3">
-        <v>-0.62791116814933601</v>
+        <v>-0.62791116814933612</v>
       </c>
       <c r="R3">
-        <v>-0.65091916477981804</v>
+        <v>-0.65091916477981837</v>
       </c>
       <c r="S3">
-        <v>-0.67218961520660203</v>
+        <v>-0.67218961520660236</v>
       </c>
       <c r="T3">
-        <v>-0.69183096344112804</v>
+        <v>-0.69183096344112782</v>
       </c>
       <c r="U3">
-        <v>-0.70994805828927399</v>
+        <v>-0.70994805828927388</v>
       </c>
       <c r="V3">
-        <v>-0.72664223153371299</v>
+        <v>-0.72664223153371277</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2986,64 +2990,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7631483173677698E-2</v>
+        <v>7.763148317367774E-2</v>
       </c>
       <c r="D4">
-        <v>0.14471389966825501</v>
+        <v>0.14471389966825488</v>
       </c>
       <c r="E4">
-        <v>0.203017115867487</v>
+        <v>0.20301711586748694</v>
       </c>
       <c r="F4">
-        <v>0.25392795548938202</v>
+        <v>0.25392795548938207</v>
       </c>
       <c r="G4">
-        <v>0.29855256800241597</v>
+        <v>0.29855256800241559</v>
       </c>
       <c r="H4">
-        <v>0.33778792296544102</v>
+        <v>0.33778792296544147</v>
       </c>
       <c r="I4">
-        <v>0.37237056754271203</v>
+        <v>0.37237056754271225</v>
       </c>
       <c r="J4">
-        <v>0.402913051170389</v>
+        <v>0.40291305117038934</v>
       </c>
       <c r="K4">
-        <v>0.42992942184920602</v>
+        <v>0.42992942184920646</v>
       </c>
       <c r="L4">
-        <v>0.45385546276813499</v>
+        <v>0.45385546276813482</v>
       </c>
       <c r="M4">
-        <v>0.47506299800662199</v>
+        <v>0.47506299800662177</v>
       </c>
       <c r="N4">
-        <v>0.493871937566981</v>
+        <v>0.49387193756698078</v>
       </c>
       <c r="O4">
-        <v>0.51055876119342503</v>
+        <v>0.5105587611934248</v>
       </c>
       <c r="P4">
-        <v>0.52536410299591096</v>
+        <v>0.52536410299591108</v>
       </c>
       <c r="Q4">
-        <v>0.53849801302824796</v>
+        <v>0.53849801302824751</v>
       </c>
       <c r="R4">
-        <v>0.55014496241237998</v>
+        <v>0.55014496241237976</v>
       </c>
       <c r="S4">
-        <v>0.56046723001337895</v>
+        <v>0.56046723001337928</v>
       </c>
       <c r="T4">
-        <v>0.56960833829562296</v>
+        <v>0.56960833829562318</v>
       </c>
       <c r="U4">
-        <v>0.57769530318611695</v>
+        <v>0.57769530318611739</v>
       </c>
       <c r="V4">
-        <v>0.58484105856509905</v>
+        <v>0.58484105856509894</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3054,34 +3058,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2981386675897902E-2</v>
+        <v>-7.2981386675897875E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14603068951682599</v>
+        <v>-0.14603068951682577</v>
       </c>
       <c r="E5">
-        <v>-0.219033604624251</v>
+        <v>-0.21903360462425139</v>
       </c>
       <c r="F5">
-        <v>-0.29186491007598903</v>
+        <v>-0.29186491007598858</v>
       </c>
       <c r="G5">
-        <v>-0.36439271546178997</v>
+        <v>-0.36439271546179014</v>
       </c>
       <c r="H5">
-        <v>-0.43648097601172298</v>
+        <v>-0.43648097601172342</v>
       </c>
       <c r="I5">
-        <v>-0.50799253098300101</v>
+        <v>-0.50799253098300146</v>
       </c>
       <c r="J5">
-        <v>-0.57879073567176798</v>
+        <v>-0.57879073567176831</v>
       </c>
       <c r="K5">
-        <v>-0.64874154845291299</v>
+        <v>-0.64874154845291254</v>
       </c>
       <c r="L5">
-        <v>-0.71771460384392305</v>
+        <v>-0.71771460384392294</v>
       </c>
       <c r="M5">
         <v>-0.78558463794688904</v>
@@ -3090,28 +3094,28 @@
         <v>-0.85223224942851905</v>
       </c>
       <c r="O5">
-        <v>-0.917544873558373</v>
+        <v>-0.91754487355837266</v>
       </c>
       <c r="P5">
-        <v>-0.98141737978839205</v>
+        <v>-0.98141737978839239</v>
       </c>
       <c r="Q5">
-        <v>-1.04375272176838</v>
+        <v>-1.0437527217683755</v>
       </c>
       <c r="R5">
-        <v>-1.1044624377328101</v>
+        <v>-1.1044624377328083</v>
       </c>
       <c r="S5">
-        <v>-1.1634670400242999</v>
+        <v>-1.163467040024297</v>
       </c>
       <c r="T5">
-        <v>-1.2206964287542901</v>
+        <v>-1.2206964287542852</v>
       </c>
       <c r="U5">
-        <v>-1.2760900443545999</v>
+        <v>-1.2760900443545982</v>
       </c>
       <c r="V5">
-        <v>-1.32959716300709</v>
+        <v>-1.3295971630070853</v>
       </c>
     </row>
   </sheetData>
